--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Atividade</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Duração</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Documento de Visão e Escopo</t>
   </si>
   <si>
@@ -49,22 +46,19 @@
     <t>Elab. de Diagramas de Casos de Uso &amp; User Stories</t>
   </si>
   <si>
-    <t>Elab. De Diagramas</t>
-  </si>
-  <si>
-    <t>4 semanas</t>
-  </si>
-  <si>
     <t>1ª Sprint</t>
   </si>
   <si>
-    <t>Codificação </t>
-  </si>
-  <si>
     <t>2ª Sprint</t>
   </si>
   <si>
-    <t>Testes</t>
+    <t>3ª Sprint</t>
+  </si>
+  <si>
+    <t>4ª Sprint</t>
+  </si>
+  <si>
+    <t>5ª Sprint</t>
   </si>
 </sst>
 </file>
@@ -183,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -209,13 +203,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>41568</v>
@@ -224,13 +216,13 @@
         <v>41575</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>41576</v>
@@ -239,73 +231,94 @@
         <v>41589</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>41590</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>41603</v>
+        <v>41596</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>41604</v>
+        <v>41597</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>41631</v>
+        <v>41610</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>41632</v>
+        <v>41611</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>41659</v>
+        <v>41624</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>40929</v>
+        <v>41625</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>40943</v>
+        <v>41638</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>41660</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>41673</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>41673</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>41687</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -42,9 +42,6 @@
     <t>2ª Sprint (Levantamento de Requisitos)</t>
   </si>
   <si>
-    <t>3ª Sprint (Elab. de Diagramas de Casos de Uso &amp; User Stories)</t>
-  </si>
-  <si>
     <t>4ª Sprint (Codificação)</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>8ª Sprint (Codificação)</t>
+  </si>
+  <si>
+    <t>3ª Sprint (Diagramas de Casos de Uso)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.95" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>41590</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>41597</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>41611</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>41625</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
         <v>41660</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>41673</v>

--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -42,22 +42,22 @@
     <t>2ª Sprint (Levantamento de Requisitos)</t>
   </si>
   <si>
-    <t>4ª Sprint (Codificação)</t>
-  </si>
-  <si>
-    <t>5ª Sprint (Codificação)</t>
-  </si>
-  <si>
-    <t>6ª Sprint (Codificação)</t>
-  </si>
-  <si>
-    <t>7ª Sprint (Codificação)</t>
-  </si>
-  <si>
-    <t>8ª Sprint (Codificação)</t>
-  </si>
-  <si>
     <t>3ª Sprint (Diagramas de Casos de Uso)</t>
+  </si>
+  <si>
+    <t>4ª Sprint (Codificação Testes)</t>
+  </si>
+  <si>
+    <t>5ª Sprint (Codificação Testes)</t>
+  </si>
+  <si>
+    <t>6ª Sprint (Codificação Testes)</t>
+  </si>
+  <si>
+    <t>7ª Sprint (Codificação Testes)</t>
+  </si>
+  <si>
+    <t>8ª Sprint (Codificação Testes)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.95" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>41590</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>41597</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>41611</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>41625</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5">
         <v>41660</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>41673</v>

--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
